--- a/biology/Médecine/Paul_Ancel/Paul_Ancel.xlsx
+++ b/biology/Médecine/Paul_Ancel/Paul_Ancel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Paul Ancel, né le 21 septembre 1873 à Nancy et mort à 27 janvier 1961 à Paris 17e[1], est un médecin et biologiste français, professeur d'anatomie à la Faculté de médecine de Nancy et d'embryologie à la Faculté de médecine de Strasbourg, pionnier de l'endocrinologie sexuelle avec Pol Bouin et auteur d'importants travaux de tératologie expérimentale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Paul Ancel, né le 21 septembre 1873 à Nancy et mort à 27 janvier 1961 à Paris 17e, est un médecin et biologiste français, professeur d'anatomie à la Faculté de médecine de Nancy et d'embryologie à la Faculté de médecine de Strasbourg, pionnier de l'endocrinologie sexuelle avec Pol Bouin et auteur d'importants travaux de tératologie expérimentale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un pharmacien alsacien qui s'établit à Nancy après l'annexion, il entreprend des études de médecine. Il est reçu interne des Hôpitaux de Nancy en 1898, docteur en médecine en 1899 puis docteur ès sciences naturelles en 1904 (soutenant une thèse sur l'histogenèse sexuelle chez l'escargot). Il suit l'enseignement d'Adolphe Nicolas[3]. Cette même année, il est professeur agrégé d'anatomie à la Faculté de médecine de Lyon (où il retrouve l'anatomiste Léo Testut) puis à Nancy en 1908. Il tient la chaire d'anatomie à Nancy de 1908 à 1919.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un pharmacien alsacien qui s'établit à Nancy après l'annexion, il entreprend des études de médecine. Il est reçu interne des Hôpitaux de Nancy en 1898, docteur en médecine en 1899 puis docteur ès sciences naturelles en 1904 (soutenant une thèse sur l'histogenèse sexuelle chez l'escargot). Il suit l'enseignement d'Adolphe Nicolas. Cette même année, il est professeur agrégé d'anatomie à la Faculté de médecine de Lyon (où il retrouve l'anatomiste Léo Testut) puis à Nancy en 1908. Il tient la chaire d'anatomie à Nancy de 1908 à 1919.
 Après la Grande Guerre, le doyen Georges Weiss fait appel à lui pour être le premier détenteur de la chaire d'embryologie, spécialement créée à son attention, de la nouvelle faculté, tout comme Pol Bouin pour l'histologie. Il sera lui-même doyen de cette faculté entre 1929 et 1931. Pierre Vintemberger et Étienne Wolff y sont ses élèves et les continuateurs de son œuvre scientifique. Ils conduiront d'importants travaux de tératologie expérimentale.
 Après sa retraite, il poursuit ses recherches à l'Institut de biologie physico-chimique de Paris, laboratoire associé au collège de France.
 </t>
@@ -544,11 +558,13 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est membre de nombreuses sociétés et académies :
 Correspondant de l'Académie des Sciences (section de zoologie).
-Correspondant national de l'Académie nationale de médecine (23 mai 1939)[4]
+Correspondant national de l'Académie nationale de médecine (23 mai 1939)
 Membre de la Société de biologie.
 Membre étranger de l'Académie royale de Médecine de Belgique.
 Il est le récipiendaire de plusieurs distinctions : 
@@ -582,7 +598,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès la période nancéienne, il travaille avec Pol Bouin sur l'histologie de l'ovaire, du corps jaune et du testicule et de l'hypophyse.  Ils mettent en évidence le rôle endocrine capital du corps jaune. Par des expériences ingénieuses et rigoureuses, ils démontrent que les cellules interstitielles testiculaires (cellules de Leydig) sont à l'origine des caractères sexuels mâles par une sécrétion endocrine androgène. A Strasbourg, il développe avec ses élèves l'étude de la tératologie expérimentale notamment par l'exposition à des agents chimiques et aux radiations.
 </t>
@@ -613,7 +631,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La liste complète de ses travaux comptent plus de trois cents publications.
 « Leçon d'ouverture du cours d'anatomie », in: Annales médicales de l’Est, 1908, 97-114, Texte intégral.
